--- a/game_data.xlsx
+++ b/game_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elijah\Documents\GitHub Repositories\MedEvaluate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1A76AF-1682-4137-B585-15B99AA264BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BF2AAB-F50C-41C3-8DFC-5B0739156108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{382ADB7F-D9BD-4779-9251-2CF17BB0FDDD}"/>
+    <workbookView xWindow="2865" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{382ADB7F-D9BD-4779-9251-2CF17BB0FDDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>option_3</t>
   </si>
   <si>
-    <t>img1.png</t>
-  </si>
-  <si>
     <t>Raiden</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Nahida</t>
   </si>
   <si>
-    <t>img2.png</t>
-  </si>
-  <si>
     <t>Furina</t>
   </si>
   <si>
@@ -86,13 +80,19 @@
     <t>Capitano</t>
   </si>
   <si>
-    <t>img4.png</t>
-  </si>
-  <si>
-    <t>img3.png</t>
-  </si>
-  <si>
-    <t>img5.png</t>
+    <t>game_pic/img1.png</t>
+  </si>
+  <si>
+    <t>game_pic/img2.png</t>
+  </si>
+  <si>
+    <t>game_pic/img3.png</t>
+  </si>
+  <si>
+    <t>game_pic/img4.png</t>
+  </si>
+  <si>
+    <t>game_pic/img5.png</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,70 +491,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,16 +562,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
